--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2627,28 +2627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1120.45337021386</v>
+        <v>1214.013046345944</v>
       </c>
       <c r="AB2" t="n">
-        <v>1533.053732040639</v>
+        <v>1661.066208486158</v>
       </c>
       <c r="AC2" t="n">
-        <v>1386.741235509106</v>
+        <v>1502.536380869305</v>
       </c>
       <c r="AD2" t="n">
-        <v>1120453.37021386</v>
+        <v>1214013.046345944</v>
       </c>
       <c r="AE2" t="n">
-        <v>1533053.732040639</v>
+        <v>1661066.208486158</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.272392305947844e-06</v>
+        <v>2.151042324477338e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.92447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1386741.235509106</v>
+        <v>1502536.380869305</v>
       </c>
     </row>
     <row r="3">
@@ -2733,28 +2733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>549.4028014506749</v>
+        <v>601.3899711275584</v>
       </c>
       <c r="AB3" t="n">
-        <v>751.7171508857862</v>
+        <v>822.8482899497563</v>
       </c>
       <c r="AC3" t="n">
-        <v>679.9743210468936</v>
+        <v>744.3168040317792</v>
       </c>
       <c r="AD3" t="n">
-        <v>549402.8014506749</v>
+        <v>601389.9711275584</v>
       </c>
       <c r="AE3" t="n">
-        <v>751717.1508857862</v>
+        <v>822848.2899497563</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.993551549500907e-06</v>
+        <v>3.370197806885832e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.16276041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>679974.3210468936</v>
+        <v>744316.8040317792</v>
       </c>
     </row>
     <row r="4">
@@ -2839,28 +2839,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>436.1086209923157</v>
+        <v>488.0957011606483</v>
       </c>
       <c r="AB4" t="n">
-        <v>596.7030549961718</v>
+        <v>667.8340715905936</v>
       </c>
       <c r="AC4" t="n">
-        <v>539.754552905334</v>
+        <v>604.096925108993</v>
       </c>
       <c r="AD4" t="n">
-        <v>436108.6209923157</v>
+        <v>488095.7011606483</v>
       </c>
       <c r="AE4" t="n">
-        <v>596703.0549961717</v>
+        <v>667834.0715905936</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.270288473101539e-06</v>
+        <v>3.838035306867548e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.923611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>539754.5529053339</v>
+        <v>604096.925108993</v>
       </c>
     </row>
     <row r="5">
@@ -2945,28 +2945,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>384.9936982168826</v>
+        <v>426.5663836891854</v>
       </c>
       <c r="AB5" t="n">
-        <v>526.7653626235835</v>
+        <v>583.6469449442299</v>
       </c>
       <c r="AC5" t="n">
-        <v>476.4916157346178</v>
+        <v>527.9444996723839</v>
       </c>
       <c r="AD5" t="n">
-        <v>384993.6982168827</v>
+        <v>426566.3836891854</v>
       </c>
       <c r="AE5" t="n">
-        <v>526765.3626235835</v>
+        <v>583646.9449442299</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.449271159519356e-06</v>
+        <v>4.140614418697828e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.272569444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>476491.6157346177</v>
+        <v>527944.4996723839</v>
       </c>
     </row>
     <row r="6">
@@ -3051,28 +3051,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>367.6091930434675</v>
+        <v>409.1818785157702</v>
       </c>
       <c r="AB6" t="n">
-        <v>502.9791156950773</v>
+        <v>559.8606980157236</v>
       </c>
       <c r="AC6" t="n">
-        <v>454.9754948287609</v>
+        <v>506.428378766527</v>
       </c>
       <c r="AD6" t="n">
-        <v>367609.1930434675</v>
+        <v>409181.8785157702</v>
       </c>
       <c r="AE6" t="n">
-        <v>502979.1156950773</v>
+        <v>559860.6980157236</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.501649504370893e-06</v>
+        <v>4.229162609483842e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.098958333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>454975.4948287609</v>
+        <v>506428.378766527</v>
       </c>
     </row>
     <row r="7">
@@ -3157,28 +3157,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>332.6328914491787</v>
+        <v>374.290828267502</v>
       </c>
       <c r="AB7" t="n">
-        <v>455.1229968082478</v>
+        <v>512.1212237815433</v>
       </c>
       <c r="AC7" t="n">
-        <v>411.6866967620056</v>
+        <v>463.245092950484</v>
       </c>
       <c r="AD7" t="n">
-        <v>332632.8914491787</v>
+        <v>374290.828267502</v>
       </c>
       <c r="AE7" t="n">
-        <v>455122.9968082478</v>
+        <v>512121.2237815433</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.57512857281681e-06</v>
+        <v>4.3533826204439e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.868923611111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>411686.6967620056</v>
+        <v>463245.092950484</v>
       </c>
     </row>
     <row r="8">
@@ -3263,28 +3263,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>328.3520572101049</v>
+        <v>370.0099940284282</v>
       </c>
       <c r="AB8" t="n">
-        <v>449.2657705452692</v>
+        <v>506.2639975185648</v>
       </c>
       <c r="AC8" t="n">
-        <v>406.3884759528972</v>
+        <v>457.9468721413755</v>
       </c>
       <c r="AD8" t="n">
-        <v>328352.0572101049</v>
+        <v>370009.9940284282</v>
       </c>
       <c r="AE8" t="n">
-        <v>449265.7705452692</v>
+        <v>506263.9975185648</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.587359523218862e-06</v>
+        <v>4.374059648951864e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.83203125</v>
       </c>
       <c r="AH8" t="n">
-        <v>406388.4759528972</v>
+        <v>457946.8721413755</v>
       </c>
     </row>
   </sheetData>
@@ -3560,28 +3560,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>785.1004838952658</v>
+        <v>855.5638666016946</v>
       </c>
       <c r="AB2" t="n">
-        <v>1074.209118254353</v>
+        <v>1170.620227098338</v>
       </c>
       <c r="AC2" t="n">
-        <v>971.6881076701237</v>
+        <v>1058.89787559988</v>
       </c>
       <c r="AD2" t="n">
-        <v>785100.4838952658</v>
+        <v>855563.8666016946</v>
       </c>
       <c r="AE2" t="n">
-        <v>1074209.118254353</v>
+        <v>1170620.227098338</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.564980616583925e-06</v>
+        <v>2.71021935868539e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.39409722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>971688.1076701237</v>
+        <v>1058897.87559988</v>
       </c>
     </row>
     <row r="3">
@@ -3666,28 +3666,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>437.5194913640281</v>
+        <v>487.8017383827366</v>
       </c>
       <c r="AB3" t="n">
-        <v>598.6334700819566</v>
+        <v>667.4318587491325</v>
       </c>
       <c r="AC3" t="n">
-        <v>541.500731884686</v>
+        <v>603.7330988966116</v>
       </c>
       <c r="AD3" t="n">
-        <v>437519.4913640281</v>
+        <v>487801.7383827366</v>
       </c>
       <c r="AE3" t="n">
-        <v>598633.4700819566</v>
+        <v>667431.8587491325</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.239343059649342e-06</v>
+        <v>3.87807417337041e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.359809027777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>541500.731884686</v>
+        <v>603733.0988966116</v>
       </c>
     </row>
     <row r="4">
@@ -3772,28 +3772,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>360.6823916205536</v>
+        <v>400.9594116499735</v>
       </c>
       <c r="AB4" t="n">
-        <v>493.501560399335</v>
+        <v>548.6103561003041</v>
       </c>
       <c r="AC4" t="n">
-        <v>446.4024641086119</v>
+        <v>496.2517536935608</v>
       </c>
       <c r="AD4" t="n">
-        <v>360682.3916205536</v>
+        <v>400959.4116499735</v>
       </c>
       <c r="AE4" t="n">
-        <v>493501.560399335</v>
+        <v>548610.3561003041</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.490466283936092e-06</v>
+        <v>4.312967114960363e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.415798611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>446402.4641086119</v>
+        <v>496251.7536935608</v>
       </c>
     </row>
     <row r="5">
@@ -3878,28 +3878,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>327.5650110539825</v>
+        <v>367.8420310834025</v>
       </c>
       <c r="AB5" t="n">
-        <v>448.1888992724367</v>
+        <v>503.2976949734058</v>
       </c>
       <c r="AC5" t="n">
-        <v>405.4143797629455</v>
+        <v>455.2636693478945</v>
       </c>
       <c r="AD5" t="n">
-        <v>327565.0110539825</v>
+        <v>367842.0310834025</v>
       </c>
       <c r="AE5" t="n">
-        <v>448188.8992724367</v>
+        <v>503297.6949734058</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.611874704293186e-06</v>
+        <v>4.523221125567506e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.025173611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>405414.3797629455</v>
+        <v>455263.6693478945</v>
       </c>
     </row>
     <row r="6">
@@ -3984,28 +3984,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>302.3512544249513</v>
+        <v>342.7135258003918</v>
       </c>
       <c r="AB6" t="n">
-        <v>413.6903251001596</v>
+        <v>468.9157654537779</v>
       </c>
       <c r="AC6" t="n">
-        <v>374.2083010906176</v>
+        <v>424.1631029262788</v>
       </c>
       <c r="AD6" t="n">
-        <v>302351.2544249513</v>
+        <v>342713.5258003918</v>
       </c>
       <c r="AE6" t="n">
-        <v>413690.3251001596</v>
+        <v>468915.7654537779</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.663065207705485e-06</v>
+        <v>4.611872379045458e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.87109375</v>
       </c>
       <c r="AH6" t="n">
-        <v>374208.3010906175</v>
+        <v>424163.1029262788</v>
       </c>
     </row>
   </sheetData>
@@ -4281,28 +4281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>313.9672400057747</v>
+        <v>359.3734758687593</v>
       </c>
       <c r="AB2" t="n">
-        <v>429.5838290329583</v>
+        <v>491.7106441224427</v>
       </c>
       <c r="AC2" t="n">
-        <v>388.5849513147428</v>
+        <v>444.7824703676193</v>
       </c>
       <c r="AD2" t="n">
-        <v>313967.2400057747</v>
+        <v>359373.4758687593</v>
       </c>
       <c r="AE2" t="n">
-        <v>429583.8290329583</v>
+        <v>491710.6441224427</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.522706847566557e-06</v>
+        <v>4.773504216174951e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.270833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>388584.9513147428</v>
+        <v>444782.4703676193</v>
       </c>
     </row>
     <row r="3">
@@ -4387,28 +4387,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>255.9042191050543</v>
+        <v>292.2804302098984</v>
       </c>
       <c r="AB3" t="n">
-        <v>350.1394422767309</v>
+        <v>399.9109791157165</v>
       </c>
       <c r="AC3" t="n">
-        <v>316.7226253297379</v>
+        <v>361.7440365474961</v>
       </c>
       <c r="AD3" t="n">
-        <v>255904.2191050543</v>
+        <v>292280.4302098984</v>
       </c>
       <c r="AE3" t="n">
-        <v>350139.4422767309</v>
+        <v>399910.9791157165</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.796133910935479e-06</v>
+        <v>5.290887058762032e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.363715277777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>316722.6253297379</v>
+        <v>361744.0365474962</v>
       </c>
     </row>
   </sheetData>
@@ -4684,28 +4684,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>443.0986521740125</v>
+        <v>490.4965547228542</v>
       </c>
       <c r="AB2" t="n">
-        <v>606.2671240373807</v>
+        <v>671.1190253525876</v>
       </c>
       <c r="AC2" t="n">
-        <v>548.4058406205052</v>
+        <v>607.0683674944039</v>
       </c>
       <c r="AD2" t="n">
-        <v>443098.6521740125</v>
+        <v>490496.5547228542</v>
       </c>
       <c r="AE2" t="n">
-        <v>606267.1240373807</v>
+        <v>671119.0253525877</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.131090361981952e-06</v>
+        <v>3.882383820450436e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.49913194444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>548405.8406205052</v>
+        <v>607068.3674944039</v>
       </c>
     </row>
     <row r="3">
@@ -4790,28 +4790,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.8475795720246</v>
+        <v>327.7488513418938</v>
       </c>
       <c r="AB3" t="n">
-        <v>396.5822455431824</v>
+        <v>448.4404376648181</v>
       </c>
       <c r="AC3" t="n">
-        <v>358.7329926352177</v>
+        <v>405.6419116841943</v>
       </c>
       <c r="AD3" t="n">
-        <v>289847.5795720246</v>
+        <v>327748.8513418938</v>
       </c>
       <c r="AE3" t="n">
-        <v>396582.2455431824</v>
+        <v>448440.4376648181</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.697552718589859e-06</v>
+        <v>4.914355212852327e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.294270833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>358732.9926352177</v>
+        <v>405641.9116841943</v>
       </c>
     </row>
     <row r="4">
@@ -4896,28 +4896,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>275.6755116077235</v>
+        <v>313.5767833775927</v>
       </c>
       <c r="AB4" t="n">
-        <v>377.1913969269134</v>
+        <v>429.0495890485492</v>
       </c>
       <c r="AC4" t="n">
-        <v>341.1927793956585</v>
+        <v>388.1016984446351</v>
       </c>
       <c r="AD4" t="n">
-        <v>275675.5116077235</v>
+        <v>313576.7833775927</v>
       </c>
       <c r="AE4" t="n">
-        <v>377191.3969269134</v>
+        <v>429049.5890485492</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.76601485997822e-06</v>
+        <v>5.03907836621142e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.090277777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>341192.7793956585</v>
+        <v>388101.6984446351</v>
       </c>
     </row>
   </sheetData>
@@ -5193,28 +5193,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>241.9668133089486</v>
+        <v>285.8947222897166</v>
       </c>
       <c r="AB2" t="n">
-        <v>331.0696687915607</v>
+        <v>391.173771821773</v>
       </c>
       <c r="AC2" t="n">
-        <v>299.4728442613911</v>
+        <v>353.8406960549392</v>
       </c>
       <c r="AD2" t="n">
-        <v>241966.8133089487</v>
+        <v>285894.7222897167</v>
       </c>
       <c r="AE2" t="n">
-        <v>331069.6687915607</v>
+        <v>391173.771821773</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.777086981144606e-06</v>
+        <v>5.442195704319343e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.747829861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>299472.8442613911</v>
+        <v>353840.6960549392</v>
       </c>
     </row>
     <row r="3">
@@ -5299,28 +5299,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>243.8457646891985</v>
+        <v>287.7736736699665</v>
       </c>
       <c r="AB3" t="n">
-        <v>333.6405329635019</v>
+        <v>393.7446359937155</v>
       </c>
       <c r="AC3" t="n">
-        <v>301.7983487649935</v>
+        <v>356.166200558542</v>
       </c>
       <c r="AD3" t="n">
-        <v>243845.7646891985</v>
+        <v>287773.6736699665</v>
       </c>
       <c r="AE3" t="n">
-        <v>333640.5329635019</v>
+        <v>393744.6359937155</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.775967639354543e-06</v>
+        <v>5.440002155063269e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>301798.3487649935</v>
+        <v>356166.200558542</v>
       </c>
     </row>
   </sheetData>
@@ -5596,28 +5596,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>852.7035513565164</v>
+        <v>933.9385215675019</v>
       </c>
       <c r="AB2" t="n">
-        <v>1166.706617591683</v>
+        <v>1277.855887668304</v>
       </c>
       <c r="AC2" t="n">
-        <v>1055.357775491754</v>
+        <v>1155.899115231243</v>
       </c>
       <c r="AD2" t="n">
-        <v>852703.5513565164</v>
+        <v>933938.5215675018</v>
       </c>
       <c r="AE2" t="n">
-        <v>1166706.617591683</v>
+        <v>1277855.887668304</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.487557038616391e-06</v>
+        <v>2.559313929710441e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.96484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1055357.775491754</v>
+        <v>1155899.115231243</v>
       </c>
     </row>
     <row r="3">
@@ -5702,28 +5702,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>461.6545498896071</v>
+        <v>512.5330823396876</v>
       </c>
       <c r="AB3" t="n">
-        <v>631.6561219202887</v>
+        <v>701.2703746209243</v>
       </c>
       <c r="AC3" t="n">
-        <v>571.3717481791506</v>
+        <v>634.342114306255</v>
       </c>
       <c r="AD3" t="n">
-        <v>461654.5498896071</v>
+        <v>512533.0823396876</v>
       </c>
       <c r="AE3" t="n">
-        <v>631656.1219202887</v>
+        <v>701270.3746209242</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.174143914492806e-06</v>
+        <v>3.740573746827292e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.555121527777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>571371.7481791506</v>
+        <v>634342.114306255</v>
       </c>
     </row>
     <row r="4">
@@ -5808,28 +5808,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>379.4281477595324</v>
+        <v>420.2163145741683</v>
       </c>
       <c r="AB4" t="n">
-        <v>519.1503309530797</v>
+        <v>574.9585002357859</v>
       </c>
       <c r="AC4" t="n">
-        <v>469.6033519989827</v>
+        <v>520.085267932605</v>
       </c>
       <c r="AD4" t="n">
-        <v>379428.1477595324</v>
+        <v>420216.3145741683</v>
       </c>
       <c r="AE4" t="n">
-        <v>519150.3309530797</v>
+        <v>574958.5002357858</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.431817394188793e-06</v>
+        <v>4.183896126261081e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.541666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>469603.3519989827</v>
+        <v>520085.267932605</v>
       </c>
     </row>
     <row r="5">
@@ -5914,28 +5914,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>345.8919961443319</v>
+        <v>386.5095707583757</v>
       </c>
       <c r="AB5" t="n">
-        <v>473.2646888025719</v>
+        <v>528.839446310431</v>
       </c>
       <c r="AC5" t="n">
-        <v>428.0969711344162</v>
+        <v>478.3677517853874</v>
       </c>
       <c r="AD5" t="n">
-        <v>345891.9961443319</v>
+        <v>386509.5707583757</v>
       </c>
       <c r="AE5" t="n">
-        <v>473264.6888025719</v>
+        <v>528839.446310431</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.552422366111877e-06</v>
+        <v>4.391394713960401e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.138020833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>428096.9711344162</v>
+        <v>478367.7517853874</v>
       </c>
     </row>
     <row r="6">
@@ -6020,28 +6020,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>308.5783666946006</v>
+        <v>349.2811926546648</v>
       </c>
       <c r="AB6" t="n">
-        <v>422.2105348282983</v>
+        <v>477.9019369888067</v>
       </c>
       <c r="AC6" t="n">
-        <v>381.915353960492</v>
+        <v>432.2916468621755</v>
       </c>
       <c r="AD6" t="n">
-        <v>308578.3666946006</v>
+        <v>349281.1926546649</v>
       </c>
       <c r="AE6" t="n">
-        <v>422210.5348282983</v>
+        <v>477901.9369888067</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.644024713834411e-06</v>
+        <v>4.5489948317606e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.855902777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>381915.353960492</v>
+        <v>432291.6468621755</v>
       </c>
     </row>
     <row r="7">
@@ -6126,28 +6126,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>309.8107250598045</v>
+        <v>350.5135510198688</v>
       </c>
       <c r="AB7" t="n">
-        <v>423.8967019113844</v>
+        <v>479.5881040718928</v>
       </c>
       <c r="AC7" t="n">
-        <v>383.4405956237188</v>
+        <v>433.8168885254022</v>
       </c>
       <c r="AD7" t="n">
-        <v>309810.7250598045</v>
+        <v>350513.5510198688</v>
       </c>
       <c r="AE7" t="n">
-        <v>423896.7019113844</v>
+        <v>479588.1040718928</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.638760211091736e-06</v>
+        <v>4.539937353726106e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.87109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>383440.5956237187</v>
+        <v>433816.8885254022</v>
       </c>
     </row>
   </sheetData>
@@ -6423,28 +6423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.6673075959861</v>
+        <v>279.1372990362253</v>
       </c>
       <c r="AB2" t="n">
-        <v>334.7646042124832</v>
+        <v>381.9279672098723</v>
       </c>
       <c r="AC2" t="n">
-        <v>302.8151402316163</v>
+        <v>345.47729805863</v>
       </c>
       <c r="AD2" t="n">
-        <v>244667.3075959861</v>
+        <v>279137.2990362253</v>
       </c>
       <c r="AE2" t="n">
-        <v>334764.6042124832</v>
+        <v>381927.9672098723</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.732852807461764e-06</v>
+        <v>5.47844173821542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.097222222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>302815.1402316163</v>
+        <v>345477.29805863</v>
       </c>
     </row>
   </sheetData>
@@ -6720,28 +6720,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>592.0407359594703</v>
+        <v>650.9262464253602</v>
       </c>
       <c r="AB2" t="n">
-        <v>810.0562539336328</v>
+        <v>890.6260071984379</v>
       </c>
       <c r="AC2" t="n">
-        <v>732.745621979299</v>
+        <v>805.6259110728704</v>
       </c>
       <c r="AD2" t="n">
-        <v>592040.7359594704</v>
+        <v>650926.2464253602</v>
       </c>
       <c r="AE2" t="n">
-        <v>810056.2539336327</v>
+        <v>890626.0071984379</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.823582330003792e-06</v>
+        <v>3.229699811186319e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.84244791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>732745.621979299</v>
+        <v>805625.9110728704</v>
       </c>
     </row>
     <row r="3">
@@ -6826,28 +6826,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>359.2636669739143</v>
+        <v>408.2495848409175</v>
       </c>
       <c r="AB3" t="n">
-        <v>491.5603987480892</v>
+        <v>558.585092679896</v>
       </c>
       <c r="AC3" t="n">
-        <v>444.6465642009234</v>
+        <v>505.2745154136273</v>
       </c>
       <c r="AD3" t="n">
-        <v>359263.6669739143</v>
+        <v>408249.5848409174</v>
       </c>
       <c r="AE3" t="n">
-        <v>491560.3987480892</v>
+        <v>558585.0926798959</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.445839372814909e-06</v>
+        <v>4.331763271996581e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.830295138888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>444646.5642009234</v>
+        <v>505274.5154136273</v>
       </c>
     </row>
     <row r="4">
@@ -6932,28 +6932,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>303.3080930383811</v>
+        <v>342.4798486696204</v>
       </c>
       <c r="AB4" t="n">
-        <v>414.9995139037947</v>
+        <v>468.5960380943489</v>
       </c>
       <c r="AC4" t="n">
-        <v>375.3925427522917</v>
+        <v>423.8738898972935</v>
       </c>
       <c r="AD4" t="n">
-        <v>303308.0930383811</v>
+        <v>342479.8486696203</v>
       </c>
       <c r="AE4" t="n">
-        <v>414999.5139037947</v>
+        <v>468596.0380943489</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.68079041680612e-06</v>
+        <v>4.747879029388717e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>375392.5427522917</v>
+        <v>423873.8898972935</v>
       </c>
     </row>
     <row r="5">
@@ -7038,28 +7038,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>283.6869820713446</v>
+        <v>332.5875590837761</v>
       </c>
       <c r="AB5" t="n">
-        <v>388.153044256372</v>
+        <v>455.0609710659811</v>
       </c>
       <c r="AC5" t="n">
-        <v>351.1082624887623</v>
+        <v>411.6305906695273</v>
       </c>
       <c r="AD5" t="n">
-        <v>283686.9820713446</v>
+        <v>332587.5590837761</v>
       </c>
       <c r="AE5" t="n">
-        <v>388153.044256372</v>
+        <v>455060.9710659811</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.719202573934713e-06</v>
+        <v>4.815909813951768e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.942708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>351108.2624887623</v>
+        <v>411630.5906695273</v>
       </c>
     </row>
   </sheetData>
@@ -7335,28 +7335,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>712.751581979691</v>
+        <v>782.6815829818989</v>
       </c>
       <c r="AB2" t="n">
-        <v>975.2181588451776</v>
+        <v>1070.899471310308</v>
       </c>
       <c r="AC2" t="n">
-        <v>882.1447064922756</v>
+        <v>968.694328785299</v>
       </c>
       <c r="AD2" t="n">
-        <v>712751.5819796909</v>
+        <v>782681.5829818989</v>
       </c>
       <c r="AE2" t="n">
-        <v>975218.1588451776</v>
+        <v>1070899.471310308</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.646732680639286e-06</v>
+        <v>2.871758003647452e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.84939236111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>882144.7064922757</v>
+        <v>968694.3287852991</v>
       </c>
     </row>
     <row r="3">
@@ -7441,28 +7441,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>415.0039448486344</v>
+        <v>455.012801132488</v>
       </c>
       <c r="AB3" t="n">
-        <v>567.8267060237874</v>
+        <v>622.5685882575229</v>
       </c>
       <c r="AC3" t="n">
-        <v>513.6341221506635</v>
+        <v>563.1515159747257</v>
       </c>
       <c r="AD3" t="n">
-        <v>415003.9448486344</v>
+        <v>455012.801132488</v>
       </c>
       <c r="AE3" t="n">
-        <v>567826.7060237874</v>
+        <v>622568.5882575229</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.302832165986066e-06</v>
+        <v>4.015938216007194e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.188368055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>513634.1221506635</v>
+        <v>563151.5159747257</v>
       </c>
     </row>
     <row r="4">
@@ -7547,28 +7547,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>340.6233252838218</v>
+        <v>380.5468407131038</v>
       </c>
       <c r="AB4" t="n">
-        <v>466.0558608938682</v>
+        <v>520.6809760054061</v>
       </c>
       <c r="AC4" t="n">
-        <v>421.5761436436656</v>
+        <v>470.9879144357889</v>
       </c>
       <c r="AD4" t="n">
-        <v>340623.3252838218</v>
+        <v>380546.8407131038</v>
       </c>
       <c r="AE4" t="n">
-        <v>466055.8608938682</v>
+        <v>520680.9760054061</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.557023183715157e-06</v>
+        <v>4.459225155169307e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.274739583333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>421576.1436436656</v>
+        <v>470987.9144357889</v>
       </c>
     </row>
     <row r="5">
@@ -7653,28 +7653,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>299.2622471144953</v>
+        <v>349.1025238744803</v>
       </c>
       <c r="AB5" t="n">
-        <v>409.4638090206093</v>
+        <v>477.6574744814479</v>
       </c>
       <c r="AC5" t="n">
-        <v>370.3851577737468</v>
+        <v>432.0705155134137</v>
       </c>
       <c r="AD5" t="n">
-        <v>299262.2471144953</v>
+        <v>349102.5238744803</v>
       </c>
       <c r="AE5" t="n">
-        <v>409463.8090206093</v>
+        <v>477657.4744814479</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.669151941056336e-06</v>
+        <v>4.654767916978447e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.927517361111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>370385.1577737468</v>
+        <v>432070.5155134137</v>
       </c>
     </row>
     <row r="6">
@@ -7759,28 +7759,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>297.1973111889424</v>
+        <v>337.2060779642449</v>
       </c>
       <c r="AB6" t="n">
-        <v>406.638472588724</v>
+        <v>461.3802323529113</v>
       </c>
       <c r="AC6" t="n">
-        <v>367.8294674855362</v>
+        <v>417.3467505283718</v>
       </c>
       <c r="AD6" t="n">
-        <v>297197.3111889423</v>
+        <v>337206.0779642449</v>
       </c>
       <c r="AE6" t="n">
-        <v>406638.472588724</v>
+        <v>461380.2323529113</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.676659692634833e-06</v>
+        <v>4.667860780160449e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.905815972222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>367829.4674855362</v>
+        <v>417346.7505283718</v>
       </c>
     </row>
   </sheetData>
@@ -8056,28 +8056,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1029.907280329834</v>
+        <v>1112.436090720037</v>
       </c>
       <c r="AB2" t="n">
-        <v>1409.164577249755</v>
+        <v>1522.084136539782</v>
       </c>
       <c r="AC2" t="n">
-        <v>1274.675887771943</v>
+        <v>1376.818562806927</v>
       </c>
       <c r="AD2" t="n">
-        <v>1029907.280329834</v>
+        <v>1112436.090720037</v>
       </c>
       <c r="AE2" t="n">
-        <v>1409164.577249755</v>
+        <v>1522084.136539782</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.341289996419043e-06</v>
+        <v>2.280104098068538e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.22786458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1274675.887771943</v>
+        <v>1376818.562806927</v>
       </c>
     </row>
     <row r="3">
@@ -8162,28 +8162,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>512.179950640125</v>
+        <v>574.0338208740778</v>
       </c>
       <c r="AB3" t="n">
-        <v>700.7872042505116</v>
+        <v>785.4183983047716</v>
       </c>
       <c r="AC3" t="n">
-        <v>633.9050570378606</v>
+        <v>710.459168712209</v>
       </c>
       <c r="AD3" t="n">
-        <v>512179.950640125</v>
+        <v>574033.8208740779</v>
       </c>
       <c r="AE3" t="n">
-        <v>700787.2042505116</v>
+        <v>785418.3983047716</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.051838654359247e-06</v>
+        <v>3.4879897239749e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.954427083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>633905.0570378606</v>
+        <v>710459.168712209</v>
       </c>
     </row>
     <row r="4">
@@ -8268,28 +8268,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>417.0260328254998</v>
+        <v>468.627818590175</v>
       </c>
       <c r="AB4" t="n">
-        <v>570.5934160019601</v>
+        <v>641.1972557953086</v>
       </c>
       <c r="AC4" t="n">
-        <v>516.1367812116214</v>
+        <v>580.0022896282042</v>
       </c>
       <c r="AD4" t="n">
-        <v>417026.0328254998</v>
+        <v>468627.818590175</v>
       </c>
       <c r="AE4" t="n">
-        <v>570593.4160019602</v>
+        <v>641197.2557953086</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.321941256781549e-06</v>
+        <v>3.947146246670431e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.795572916666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>516136.7812116214</v>
+        <v>580002.2896282042</v>
       </c>
     </row>
     <row r="5">
@@ -8374,28 +8374,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>373.7255534972094</v>
+        <v>414.9900034465863</v>
       </c>
       <c r="AB5" t="n">
-        <v>511.3477899026662</v>
+        <v>567.8076307824539</v>
       </c>
       <c r="AC5" t="n">
-        <v>462.5454745154857</v>
+        <v>513.6168674235906</v>
       </c>
       <c r="AD5" t="n">
-        <v>373725.5534972094</v>
+        <v>414990.0034465863</v>
       </c>
       <c r="AE5" t="n">
-        <v>511347.7899026662</v>
+        <v>567807.6307824539</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.476285601022865e-06</v>
+        <v>4.209521402496449e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.248697916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>462545.4745154857</v>
+        <v>513616.8674235907</v>
       </c>
     </row>
     <row r="6">
@@ -8480,28 +8480,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>339.3373003247391</v>
+        <v>390.8537452348426</v>
       </c>
       <c r="AB6" t="n">
-        <v>464.2962648094341</v>
+        <v>534.7833374805848</v>
       </c>
       <c r="AC6" t="n">
-        <v>419.9844809399214</v>
+        <v>483.7443663245652</v>
       </c>
       <c r="AD6" t="n">
-        <v>339337.3003247391</v>
+        <v>390853.7452348426</v>
       </c>
       <c r="AE6" t="n">
-        <v>464296.2648094341</v>
+        <v>534783.3374805849</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.553928335168648e-06</v>
+        <v>4.341508904665024e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.996961805555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>419984.4809399213</v>
+        <v>483744.3663245653</v>
       </c>
     </row>
     <row r="7">
@@ -8586,28 +8586,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>321.1193767311297</v>
+        <v>362.4690780265271</v>
       </c>
       <c r="AB7" t="n">
-        <v>439.3696980305924</v>
+        <v>495.9461835630293</v>
       </c>
       <c r="AC7" t="n">
-        <v>397.436870709796</v>
+        <v>448.6137758686135</v>
       </c>
       <c r="AD7" t="n">
-        <v>321119.3767311297</v>
+        <v>362469.0780265271</v>
       </c>
       <c r="AE7" t="n">
-        <v>439369.6980305924</v>
+        <v>495946.1835630293</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.606537169577731e-06</v>
+        <v>4.43094043643743e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.836371527777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>397436.870709796</v>
+        <v>448613.7758686134</v>
       </c>
     </row>
     <row r="8">
@@ -8692,28 +8692,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>321.8893303656321</v>
+        <v>363.2390316610296</v>
       </c>
       <c r="AB8" t="n">
-        <v>440.4231825612757</v>
+        <v>496.9996680937127</v>
       </c>
       <c r="AC8" t="n">
-        <v>398.3898121554457</v>
+        <v>449.566717314263</v>
       </c>
       <c r="AD8" t="n">
-        <v>321889.3303656321</v>
+        <v>363239.0316610296</v>
       </c>
       <c r="AE8" t="n">
-        <v>440423.1825612757</v>
+        <v>496999.6680937127</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.606443057172706e-06</v>
+        <v>4.430780451586316e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.836371527777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>398389.8121554457</v>
+        <v>449566.717314263</v>
       </c>
     </row>
   </sheetData>
@@ -8989,28 +8989,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>487.5891402462508</v>
+        <v>545.1526775586033</v>
       </c>
       <c r="AB2" t="n">
-        <v>667.1409725996248</v>
+        <v>745.9019438744208</v>
       </c>
       <c r="AC2" t="n">
-        <v>603.4699745129517</v>
+        <v>674.7141092309987</v>
       </c>
       <c r="AD2" t="n">
-        <v>487589.1402462508</v>
+        <v>545152.6775586032</v>
       </c>
       <c r="AE2" t="n">
-        <v>667140.9725996248</v>
+        <v>745901.9438744208</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.019199564730262e-06</v>
+        <v>3.64109463847749e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.94184027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>603469.9745129517</v>
+        <v>674714.1092309987</v>
       </c>
     </row>
     <row r="3">
@@ -9095,28 +9095,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>313.3946953464667</v>
+        <v>351.7420294450621</v>
       </c>
       <c r="AB3" t="n">
-        <v>428.8004481712055</v>
+        <v>481.2689624498854</v>
       </c>
       <c r="AC3" t="n">
-        <v>387.8763352229537</v>
+        <v>435.3373281388987</v>
       </c>
       <c r="AD3" t="n">
-        <v>313394.6953464667</v>
+        <v>351742.0294450621</v>
       </c>
       <c r="AE3" t="n">
-        <v>428800.4481712055</v>
+        <v>481268.9624498853</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.608200647927345e-06</v>
+        <v>4.703202972664272e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.472222222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>387876.3352229537</v>
+        <v>435337.3281388987</v>
       </c>
     </row>
     <row r="4">
@@ -9201,28 +9201,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>269.2124481181805</v>
+        <v>317.0824982148072</v>
       </c>
       <c r="AB4" t="n">
-        <v>368.3483483302832</v>
+        <v>433.8462627500491</v>
       </c>
       <c r="AC4" t="n">
-        <v>333.193698945794</v>
+        <v>392.4405843402378</v>
       </c>
       <c r="AD4" t="n">
-        <v>269212.4481181806</v>
+        <v>317082.4982148072</v>
       </c>
       <c r="AE4" t="n">
-        <v>368348.3483302832</v>
+        <v>433846.2627500491</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.768763259543905e-06</v>
+        <v>4.992735356936106e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.979600694444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>333193.698945794</v>
+        <v>392440.5843402378</v>
       </c>
     </row>
   </sheetData>
@@ -9498,28 +9498,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>353.125301103614</v>
+        <v>399.3839036009953</v>
       </c>
       <c r="AB2" t="n">
-        <v>483.1616157587546</v>
+        <v>546.4546764811823</v>
       </c>
       <c r="AC2" t="n">
-        <v>437.0493492723252</v>
+        <v>494.301809111773</v>
       </c>
       <c r="AD2" t="n">
-        <v>353125.301103614</v>
+        <v>399383.9036009953</v>
       </c>
       <c r="AE2" t="n">
-        <v>483161.6157587547</v>
+        <v>546454.6764811823</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.376965512592533e-06</v>
+        <v>4.434657866733351e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.683159722222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>437049.3492723252</v>
+        <v>494301.809111773</v>
       </c>
     </row>
     <row r="3">
@@ -9604,28 +9604,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>261.8902373300365</v>
+        <v>298.8118679819209</v>
       </c>
       <c r="AB3" t="n">
-        <v>358.329776496803</v>
+        <v>408.8475804220959</v>
       </c>
       <c r="AC3" t="n">
-        <v>324.1312855469473</v>
+        <v>369.8277411677934</v>
       </c>
       <c r="AD3" t="n">
-        <v>261890.2373300365</v>
+        <v>298811.8679819209</v>
       </c>
       <c r="AE3" t="n">
-        <v>358329.776496803</v>
+        <v>408847.5804220959</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.793454160100604e-06</v>
+        <v>5.211692555411821e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.240017361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>324131.2855469473</v>
+        <v>369827.7411677934</v>
       </c>
     </row>
   </sheetData>
@@ -16850,28 +16850,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.293375779802</v>
+        <v>311.0421481576939</v>
       </c>
       <c r="AB2" t="n">
-        <v>364.354344776531</v>
+        <v>425.5815893204695</v>
       </c>
       <c r="AC2" t="n">
-        <v>329.5808774855927</v>
+        <v>384.9646797432353</v>
       </c>
       <c r="AD2" t="n">
-        <v>266293.375779802</v>
+        <v>311042.1481576939</v>
       </c>
       <c r="AE2" t="n">
-        <v>364354.344776531</v>
+        <v>425581.5893204695</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.686732842175507e-06</v>
+        <v>5.166686889250365e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.860677083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>329580.8774855927</v>
+        <v>384964.6797432352</v>
       </c>
     </row>
     <row r="3">
@@ -16956,28 +16956,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>249.8880186433874</v>
+        <v>285.8406500839329</v>
       </c>
       <c r="AB3" t="n">
-        <v>341.9078113890501</v>
+        <v>391.0997878443224</v>
       </c>
       <c r="AC3" t="n">
-        <v>309.2766097408083</v>
+        <v>353.7737730044593</v>
       </c>
       <c r="AD3" t="n">
-        <v>249888.0186433874</v>
+        <v>285840.6500839329</v>
       </c>
       <c r="AE3" t="n">
-        <v>341907.8113890501</v>
+        <v>391099.7878443224</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.793043599007883e-06</v>
+        <v>5.371126417025431e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.524305555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>309276.6097408083</v>
+        <v>353773.7730044593</v>
       </c>
     </row>
   </sheetData>
@@ -17253,28 +17253,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>239.2596952273657</v>
+        <v>281.2700289778819</v>
       </c>
       <c r="AB2" t="n">
-        <v>327.36567040272</v>
+        <v>384.8460624054513</v>
       </c>
       <c r="AC2" t="n">
-        <v>296.1223502801857</v>
+        <v>348.1168943443151</v>
       </c>
       <c r="AD2" t="n">
-        <v>239259.6952273657</v>
+        <v>281270.0289778818</v>
       </c>
       <c r="AE2" t="n">
-        <v>327365.6704027199</v>
+        <v>384846.0624054513</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.630865548229135e-06</v>
+        <v>5.426421494374032e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.713541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>296122.3502801857</v>
+        <v>348116.8943443152</v>
       </c>
     </row>
   </sheetData>
@@ -17550,28 +17550,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>655.3410477010614</v>
+        <v>714.7171521761651</v>
       </c>
       <c r="AB2" t="n">
-        <v>896.6665330711386</v>
+        <v>977.9075387028307</v>
       </c>
       <c r="AC2" t="n">
-        <v>811.0899376342117</v>
+        <v>884.5774157108825</v>
       </c>
       <c r="AD2" t="n">
-        <v>655341.0477010614</v>
+        <v>714717.1521761651</v>
       </c>
       <c r="AE2" t="n">
-        <v>896666.5330711385</v>
+        <v>977907.5387028307</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.732400880648582e-06</v>
+        <v>3.043760007938149e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.33506944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>811089.9376342116</v>
+        <v>884577.4157108825</v>
       </c>
     </row>
     <row r="3">
@@ -17656,28 +17656,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>381.3536283837095</v>
+        <v>430.8194173800748</v>
       </c>
       <c r="AB3" t="n">
-        <v>521.7848584892888</v>
+        <v>589.4661332707088</v>
       </c>
       <c r="AC3" t="n">
-        <v>471.9864439247186</v>
+        <v>533.2083128322658</v>
       </c>
       <c r="AD3" t="n">
-        <v>381353.6283837095</v>
+        <v>430819.4173800748</v>
       </c>
       <c r="AE3" t="n">
-        <v>521784.8584892888</v>
+        <v>589466.1332707088</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.375059370138842e-06</v>
+        <v>4.172885622524572e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.997395833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>471986.4439247187</v>
+        <v>533208.3128322659</v>
       </c>
     </row>
     <row r="4">
@@ -17762,28 +17762,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>318.0842793018604</v>
+        <v>357.6399318365894</v>
       </c>
       <c r="AB4" t="n">
-        <v>435.2169438288176</v>
+        <v>489.3387326990626</v>
       </c>
       <c r="AC4" t="n">
-        <v>393.6804495406114</v>
+        <v>442.636930841488</v>
       </c>
       <c r="AD4" t="n">
-        <v>318084.2793018604</v>
+        <v>357639.9318365894</v>
       </c>
       <c r="AE4" t="n">
-        <v>435216.9438288176</v>
+        <v>489338.7326990626</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.638385879623511e-06</v>
+        <v>4.635539912044047e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.098958333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>393680.4495406115</v>
+        <v>442636.9308414881</v>
       </c>
     </row>
     <row r="5">
@@ -17868,28 +17868,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>290.1049477933458</v>
+        <v>339.4853959351395</v>
       </c>
       <c r="AB5" t="n">
-        <v>396.9343880978788</v>
+        <v>464.4988957571013</v>
       </c>
       <c r="AC5" t="n">
-        <v>359.051527198729</v>
+        <v>420.1677730743374</v>
       </c>
       <c r="AD5" t="n">
-        <v>290104.9477933458</v>
+        <v>339485.3959351395</v>
       </c>
       <c r="AE5" t="n">
-        <v>396934.3880978788</v>
+        <v>464498.8957571012</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.697865764338822e-06</v>
+        <v>4.740043723139695e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.921006944444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>359051.527198729</v>
+        <v>420167.7730743374</v>
       </c>
     </row>
   </sheetData>
@@ -18165,28 +18165,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>936.4974652037381</v>
+        <v>1018.475378528491</v>
       </c>
       <c r="AB2" t="n">
-        <v>1281.357147244028</v>
+        <v>1393.522944865244</v>
       </c>
       <c r="AC2" t="n">
-        <v>1159.066219507109</v>
+        <v>1260.527070829041</v>
       </c>
       <c r="AD2" t="n">
-        <v>936497.4652037381</v>
+        <v>1018475.378528491</v>
       </c>
       <c r="AE2" t="n">
-        <v>1281357.147244028</v>
+        <v>1393522.944865244</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.413843803390225e-06</v>
+        <v>2.417515341656942e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.56597222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1159066.219507109</v>
+        <v>1260527.070829041</v>
       </c>
     </row>
     <row r="3">
@@ -18271,28 +18271,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>486.6624112845975</v>
+        <v>537.9519451466754</v>
       </c>
       <c r="AB3" t="n">
-        <v>665.8729811498943</v>
+        <v>736.0495841145274</v>
       </c>
       <c r="AC3" t="n">
-        <v>602.3229983875465</v>
+        <v>665.8020448587157</v>
       </c>
       <c r="AD3" t="n">
-        <v>486662.4112845975</v>
+        <v>537951.9451466753</v>
       </c>
       <c r="AE3" t="n">
-        <v>665872.9811498943</v>
+        <v>736049.5841145274</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.111703212084212e-06</v>
+        <v>3.610777159399417e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.752604166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>602322.9983875465</v>
+        <v>665802.0448587157</v>
       </c>
     </row>
     <row r="4">
@@ -18377,28 +18377,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>397.7561256525149</v>
+        <v>448.9603186600211</v>
       </c>
       <c r="AB4" t="n">
-        <v>544.2274788795768</v>
+        <v>614.2873147220122</v>
       </c>
       <c r="AC4" t="n">
-        <v>492.2871721233732</v>
+        <v>555.6605955626036</v>
       </c>
       <c r="AD4" t="n">
-        <v>397756.1256525149</v>
+        <v>448960.3186600211</v>
       </c>
       <c r="AE4" t="n">
-        <v>544227.4788795768</v>
+        <v>614287.3147220121</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.377030232305642e-06</v>
+        <v>4.064456795299331e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.663194444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>492287.1721233732</v>
+        <v>555660.5955626036</v>
       </c>
     </row>
     <row r="5">
@@ -18483,28 +18483,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>375.747681479003</v>
+        <v>416.6940572226447</v>
       </c>
       <c r="AB5" t="n">
-        <v>514.1145546173467</v>
+        <v>570.1391923364038</v>
       </c>
       <c r="AC5" t="n">
-        <v>465.0481830889757</v>
+        <v>515.7259080151988</v>
       </c>
       <c r="AD5" t="n">
-        <v>375747.681479003</v>
+        <v>416694.0572226447</v>
       </c>
       <c r="AE5" t="n">
-        <v>514114.5546173467</v>
+        <v>570139.1923364038</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.452282137540117e-06</v>
+        <v>4.193129166997696e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.3984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>465048.1830889757</v>
+        <v>515725.9080151988</v>
       </c>
     </row>
     <row r="6">
@@ -18589,28 +18589,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>322.5746973606284</v>
+        <v>363.6063244502906</v>
       </c>
       <c r="AB6" t="n">
-        <v>441.3609319200874</v>
+        <v>497.5022142917937</v>
       </c>
       <c r="AC6" t="n">
-        <v>399.238064031592</v>
+        <v>450.0213012085274</v>
       </c>
       <c r="AD6" t="n">
-        <v>322574.6973606283</v>
+        <v>363606.3244502906</v>
       </c>
       <c r="AE6" t="n">
-        <v>441360.9319200874</v>
+        <v>497502.2142917937</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.602026786291696e-06</v>
+        <v>4.449175828460523e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.914496527777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>399238.064031592</v>
+        <v>450021.3012085274</v>
       </c>
     </row>
     <row r="7">
@@ -18695,28 +18695,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>315.1198635870463</v>
+        <v>356.1514906767085</v>
       </c>
       <c r="AB7" t="n">
-        <v>431.1608994670177</v>
+        <v>487.3021818387242</v>
       </c>
       <c r="AC7" t="n">
-        <v>390.0115083600079</v>
+        <v>440.7947455369433</v>
       </c>
       <c r="AD7" t="n">
-        <v>315119.8635870463</v>
+        <v>356151.4906767085</v>
       </c>
       <c r="AE7" t="n">
-        <v>431160.8994670177</v>
+        <v>487302.1818387242</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.624516952168834e-06</v>
+        <v>4.487631505752468e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.847222222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>390011.5083600079</v>
+        <v>440794.7455369433</v>
       </c>
     </row>
   </sheetData>
@@ -18992,28 +18992,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>252.2773069816385</v>
+        <v>292.967038823929</v>
       </c>
       <c r="AB2" t="n">
-        <v>345.1769411014059</v>
+        <v>400.8504273124676</v>
       </c>
       <c r="AC2" t="n">
-        <v>312.2337383016703</v>
+        <v>362.593825126873</v>
       </c>
       <c r="AD2" t="n">
-        <v>252277.3069816385</v>
+        <v>292967.038823929</v>
       </c>
       <c r="AE2" t="n">
-        <v>345176.9411014059</v>
+        <v>400850.4273124676</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.395896722680034e-06</v>
+        <v>5.135510203880326e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.04383680555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>312233.7383016702</v>
+        <v>362593.825126873</v>
       </c>
     </row>
   </sheetData>
@@ -19289,28 +19289,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>401.4346496865177</v>
+        <v>448.2406182158941</v>
       </c>
       <c r="AB2" t="n">
-        <v>549.2605977479262</v>
+        <v>613.3025888234148</v>
       </c>
       <c r="AC2" t="n">
-        <v>496.839937190954</v>
+        <v>554.769850521697</v>
       </c>
       <c r="AD2" t="n">
-        <v>401434.6496865177</v>
+        <v>448240.6182158941</v>
       </c>
       <c r="AE2" t="n">
-        <v>549260.5977479263</v>
+        <v>613302.5888234148</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.250871424485535e-06</v>
+        <v>4.147078744808097e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.07595486111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>496839.937190954</v>
+        <v>554769.850521697</v>
       </c>
     </row>
     <row r="3">
@@ -19395,28 +19395,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>269.9091243155989</v>
+        <v>307.3368488698959</v>
       </c>
       <c r="AB3" t="n">
-        <v>369.3015714387755</v>
+        <v>420.5118353686365</v>
       </c>
       <c r="AC3" t="n">
-        <v>334.0559477786689</v>
+        <v>380.3787759931207</v>
       </c>
       <c r="AD3" t="n">
-        <v>269909.1243155989</v>
+        <v>307336.8488698959</v>
       </c>
       <c r="AE3" t="n">
-        <v>369301.5714387755</v>
+        <v>420511.8353686365</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.774162190256027e-06</v>
+        <v>5.111206676983151e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.174913194444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>334055.9477786689</v>
+        <v>380378.7759931207</v>
       </c>
     </row>
     <row r="4">
@@ -19501,28 +19501,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>269.5816800169134</v>
+        <v>307.0094045712104</v>
       </c>
       <c r="AB4" t="n">
-        <v>368.8535477034912</v>
+        <v>420.0638116333522</v>
       </c>
       <c r="AC4" t="n">
-        <v>333.6506827998748</v>
+        <v>379.9735110143267</v>
       </c>
       <c r="AD4" t="n">
-        <v>269581.6800169135</v>
+        <v>307009.4045712104</v>
       </c>
       <c r="AE4" t="n">
-        <v>368853.5477034912</v>
+        <v>420063.8116333522</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.780537412287583e-06</v>
+        <v>5.122952593472601e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.157552083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>333650.6827998748</v>
+        <v>379973.5110143267</v>
       </c>
     </row>
   </sheetData>
@@ -19798,28 +19798,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>543.0431891401872</v>
+        <v>601.1551823850093</v>
       </c>
       <c r="AB2" t="n">
-        <v>743.0156487562831</v>
+        <v>822.5270416340522</v>
       </c>
       <c r="AC2" t="n">
-        <v>672.1032780679955</v>
+        <v>744.0262152044511</v>
       </c>
       <c r="AD2" t="n">
-        <v>543043.1891401872</v>
+        <v>601155.1823850094</v>
       </c>
       <c r="AE2" t="n">
-        <v>743015.6487562831</v>
+        <v>822527.0416340523</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.918367907310308e-06</v>
+        <v>3.42702426721848e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.38237847222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>672103.2780679954</v>
+        <v>744026.2152044511</v>
       </c>
     </row>
     <row r="3">
@@ -19904,28 +19904,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>336.3013883864251</v>
+        <v>384.7848687363654</v>
       </c>
       <c r="AB3" t="n">
-        <v>460.1423961604509</v>
+        <v>526.4796329154333</v>
       </c>
       <c r="AC3" t="n">
-        <v>416.2270516848057</v>
+        <v>476.2331556687893</v>
       </c>
       <c r="AD3" t="n">
-        <v>336301.3883864251</v>
+        <v>384784.8687363653</v>
       </c>
       <c r="AE3" t="n">
-        <v>460142.3961604509</v>
+        <v>526479.6329154333</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.524920319860349e-06</v>
+        <v>4.510585887086982e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.648003472222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>416227.0516848057</v>
+        <v>476233.1556687893</v>
       </c>
     </row>
     <row r="4">
@@ -20010,28 +20010,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>291.9025136498896</v>
+        <v>330.6723192674784</v>
       </c>
       <c r="AB4" t="n">
-        <v>399.3938970058106</v>
+        <v>452.4404554549053</v>
       </c>
       <c r="AC4" t="n">
-        <v>361.2763040284303</v>
+        <v>409.2601733904558</v>
       </c>
       <c r="AD4" t="n">
-        <v>291902.5136498896</v>
+        <v>330672.3192674784</v>
       </c>
       <c r="AE4" t="n">
-        <v>399393.8970058106</v>
+        <v>452440.4554549053</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.711071939504937e-06</v>
+        <v>4.843132170556911e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>361276.3040284303</v>
+        <v>409260.1733904558</v>
       </c>
     </row>
     <row r="5">
@@ -20116,28 +20116,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>278.6263469855352</v>
+        <v>327.0244864809038</v>
       </c>
       <c r="AB5" t="n">
-        <v>381.2288600725045</v>
+        <v>447.4493297052892</v>
       </c>
       <c r="AC5" t="n">
-        <v>344.8449127252495</v>
+        <v>404.7453936772941</v>
       </c>
       <c r="AD5" t="n">
-        <v>278626.3469855352</v>
+        <v>327024.4864809038</v>
       </c>
       <c r="AE5" t="n">
-        <v>381228.8600725045</v>
+        <v>447449.3297052892</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.734617603827549e-06</v>
+        <v>4.88519478154716e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.986111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>344844.9127252495</v>
+        <v>404745.3936772941</v>
       </c>
     </row>
   </sheetData>
